--- a/ResultadoEleicoesDistritos/SANTARÉM_SALVATERRA DE MAGOS.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_SALVATERRA DE MAGOS.xlsx
@@ -597,64 +597,64 @@
         <v>5878</v>
       </c>
       <c r="H2" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="I2" t="n">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="J2" t="n">
-        <v>2363</v>
+        <v>2433</v>
       </c>
       <c r="K2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="M2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>31</v>
+      </c>
+      <c r="S2" t="n">
+        <v>264</v>
+      </c>
+      <c r="T2" t="n">
+        <v>439</v>
+      </c>
+      <c r="U2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3671</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>34</v>
-      </c>
-      <c r="S2" t="n">
-        <v>262</v>
-      </c>
-      <c r="T2" t="n">
-        <v>426</v>
-      </c>
-      <c r="U2" t="n">
-        <v>24</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3847</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>3755</v>
+        <v>3837</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
